--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:19:55-04:00</t>
+    <t>2025-07-09T09:25:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:25:32-04:00</t>
+    <t>2025-07-09T09:31:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1487,7 +1487,7 @@
     <t>authorString</t>
   </si>
   <si>
-    <t>Kristina Gary</t>
+    <t>Kristina Test</t>
   </si>
   <si>
     <t>ServiceRequest.note.time</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:31:51-04:00</t>
+    <t>2025-07-09T09:41:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:41:59-04:00</t>
+    <t>2025-07-09T09:44:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:44:59-04:00</t>
+    <t>2025-07-09T11:35:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:35:17-04:00</t>
+    <t>2025-07-09T11:57:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:57:14-04:00</t>
+    <t>2025-07-09T14:27:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T14:27:49-04:00</t>
+    <t>2025-07-09T20:17:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T20:17:03-04:00</t>
+    <t>2025-07-09T20:24:01-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T20:24:01-04:00</t>
+    <t>2025-07-09T20:35:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CIEServiceRequest.xlsx
+++ b/StructureDefinition-CIEServiceRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T20:35:37-04:00</t>
+    <t>2025-07-09T20:59:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
